--- a/comprehensive_forecast Alex.xlsx
+++ b/comprehensive_forecast Alex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DON 2\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analysis\Microsoft\New Materia\Final Project DEPI\DATA\Data Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3768BFBE-6130-4E1F-AE9C-5A0788B01DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C776B7D4-8CA8-476C-AC9A-FC644BA4959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -444,15 +444,15 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -490,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -528,9 +528,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45659</v>
+        <v>45689</v>
       </c>
       <c r="B3">
         <v>15.07841090476346</v>
@@ -566,9 +566,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45660</v>
+        <v>45717</v>
       </c>
       <c r="B4">
         <v>5.1490536660617483</v>
@@ -604,9 +604,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45661</v>
+        <v>45748</v>
       </c>
       <c r="B5">
         <v>15.358117380544011</v>
@@ -642,9 +642,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45662</v>
+        <v>45778</v>
       </c>
       <c r="B6">
         <v>24.87781140146053</v>
@@ -680,9 +680,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45663</v>
+        <v>45809</v>
       </c>
       <c r="B7">
         <v>15.59251895195399</v>
@@ -718,9 +718,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45664</v>
+        <v>45839</v>
       </c>
       <c r="B8">
         <v>5.6631617132522809</v>
@@ -756,9 +756,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45665</v>
+        <v>45870</v>
       </c>
       <c r="B9">
         <v>15.87222542773455</v>
@@ -794,9 +794,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45666</v>
+        <v>45901</v>
       </c>
       <c r="B10">
         <v>25.391919448651059</v>
@@ -832,9 +832,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45667</v>
+        <v>45931</v>
       </c>
       <c r="B11">
         <v>16.10662699914452</v>
@@ -870,9 +870,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45668</v>
+        <v>45962</v>
       </c>
       <c r="B12">
         <v>6.1772697604428144</v>
@@ -908,9 +908,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45669</v>
+        <v>45992</v>
       </c>
       <c r="B13">
         <v>16.386333474925081</v>
